--- a/biology/Zoologie/Algyroides_nigropunctatus/Algyroides_nigropunctatus.xlsx
+++ b/biology/Zoologie/Algyroides_nigropunctatus/Algyroides_nigropunctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Algyroides nigropunctatus est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algyroides nigropunctatus est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord-est de l'Italie, sur la côte Adriatique de la Croatie et de Bosnie-Herzégovine, au Monténégro, en Albanie et dans le nord-ouest de la Grèce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord-est de l'Italie, sur la côte Adriatique de la Croatie et de Bosnie-Herzégovine, au Monténégro, en Albanie et dans le nord-ouest de la Grèce.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce reptile atteint au maximum 25 cm de long. Les mâles présentent une coloration bleu vif sur la gorge durant la saison des amours. Les femelles peuvent parfois avoir également cette coloration, mais celle-ci est plus pale. Le reste du corps est brun clair tirant parfois sur le rouge, avec le ventre blanc-crème. Le dos présente des rangées de points noirs, points souvent moins visibles chez les femelles.
 Il vit dans les haies, les murs, ruines, rochers et apprécie de grimper. Il consomme de petits animaux, principalement des insectes mais également des vers ou de petits invertébrés.
@@ -575,9 +591,11 @@
           <t>Liste de sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (8 décembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (8 décembre 2012) :
 Algyroides nigropunctatus kephallithacius Keymar, 1986
 Algyroides nigropunctatus nigropunctatus (Duméril &amp; Bibron, 1839)</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1839 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. vol. 5, Roret/Fain et Thunot, Paris, p. 1-871 (texte intégral).
 Keymar, 1986 : Die Amphibien und Reptilien der ionischen Region (Griechenland). Analyse ihrer rezenten Verbreitungsmuster und Überlegungen zu ihrer Ausbreitungsgeschichte. ÖHG-Nachrichten (Wien) vol. 8/9, p. 8-44.</t>
